--- a/addcnt/template_package.xlsx
+++ b/addcnt/template_package.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\some\path\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mytakeda-my.sharepoint.com/personal/ryou_nakaya_takeda_com/Documents/仲家/SAS/SASPACer/SASPACer/addcnt/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_863F6AA002F6A0AED88E1CA3369039B44B93B311" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6ECFD1CE-9FE8-493D-8C78-BDA73A65E97F}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="4365" windowWidth="14370" windowHeight="4905" tabRatio="863" activeTab="7"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="863" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="1" r:id="rId1"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nakaya, Ryou</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,12 +60,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nakaya, Ryou</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -85,12 +86,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nakaya, Ryou</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -247,11 +248,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>This is mcrOne macro.
-(No need to write location column if content is written in body column.)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>This is an informat.
 (No need to write body column if content is in a file written in location column, SASPACer reads the file.)</t>
     <phoneticPr fontId="1"/>
@@ -262,11 +258,6 @@
   </si>
   <si>
     <t>mcrtwo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This is mcrTwo macro.
-(No need to write body column if content is in a file written in location column, SASPACer reads the file.)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -359,22 +350,72 @@
   <si>
     <t>%macro mcrOne(); %put **Hi! This is macro &amp;sysmacroname.**; data _null_; set myLibA.smallDatasetA; p = f1(n); p + f2(n); put (n p) (= fmtNum.); run; %mend mcrOne;</t>
   </si>
+  <si>
+    <t>### Macro:
+    %macrone  
+### Purpose:
+    Generates some result using mylibA and functions f1 and f2 as well as fmtNum.  
+### Parameters:  
+ - `parameter1` (required)	: Description of parameter1
+ - `parameter2` (option, default=xxx)		: Description of parameter2
+### Sample code:
+~~~sas
+%macrOne(  
+  parameter1 = xxxx,  
+  parameter2 = yyyy  
+)
+~~~
+### Note:
+- Description of some notes here
+### URL:
+https://github.com/you/your_repo
+---
+Author: Your Name
+Latest udpate Date: 2025-MM-DD
+---</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>### Macro:
+    %macrTwo 
+### Purpose:
+    Generates some result using mylibA and functions f1 and f2 as well as fmtNum.  
+### Parameters:  
+ - `parameter1` (required)	: Description of parameter1
+ - `parameter2` (option, default=xxx)		: Description of parameter2
+### Sample code:
+~~~sas
+%macrOne(  
+  parameter1 = xxxx,  
+  parameter2 = yyyy  
+)
+~~~
+### Note:
+- Description of some notes here
+### URL:
+https://github.com/you/your_repo
+---
+Author: Your Name
+Latest udpate Date: 2025-MM-DD
+---</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -383,7 +424,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -464,7 +505,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -741,17 +782,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="56.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -832,7 +873,7 @@
       </c>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:2" ht="165">
+    <row r="11" spans="1:2" ht="198">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -848,24 +889,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="115" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="210">
+    <row r="1" spans="1:2" ht="252">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -875,7 +916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -883,11 +924,11 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -904,28 +945,28 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="210">
+    <row r="2" spans="1:4" ht="252">
       <c r="A2" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4" ht="60">
+    <row r="3" spans="1:4" ht="72">
       <c r="A3" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -977,7 +1018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -985,11 +1026,11 @@
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1006,7 +1047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45">
+    <row r="2" spans="1:4" ht="54">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1018,16 +1059,16 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="60">
+    <row r="3" spans="1:4" ht="72">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1080,7 +1121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1088,11 +1129,11 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1109,28 +1150,28 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="90">
+    <row r="2" spans="1:4" ht="108">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="75">
+    <row r="3" spans="1:4" ht="90">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1183,7 +1224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1191,11 +1232,11 @@
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1212,28 +1253,28 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45">
+    <row r="2" spans="1:4" ht="54">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="60">
+    <row r="3" spans="1:4" ht="72">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1285,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1293,11 +1334,11 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1314,15 +1355,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60">
+    <row r="2" spans="1:4" ht="54">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -1381,20 +1422,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="68.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1411,28 +1452,28 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75">
+    <row r="2" spans="1:4" ht="409.5">
       <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" ht="409.5">
+      <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="90">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1484,7 +1525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1492,11 +1533,11 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1513,12 +1554,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45">
+    <row r="2" spans="1:4" ht="54">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>23</v>
